--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860051A0-AFD2-40D8-80F5-42F330934D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07801159-FF6D-419C-87AC-57784E98EDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Core</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>DSP Blocks(%)</t>
+  </si>
+  <si>
+    <t>Arcade-Pacman</t>
+  </si>
+  <si>
+    <t>13,910 / 41,910</t>
+  </si>
+  <si>
+    <t>779,410 / 5,662,720</t>
+  </si>
+  <si>
+    <t>120 / 553</t>
+  </si>
+  <si>
+    <t>35 / 112</t>
   </si>
 </sst>
 </file>
@@ -450,13 +465,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="17.5703125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -493,7 +511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -526,6 +544,41 @@
       </c>
       <c r="K2" s="3">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="E3" s="1">
+        <v>17567</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07801159-FF6D-419C-87AC-57784E98EDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABF53E0-A744-436B-85F6-6701DCAA027A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Core</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>35 / 112</t>
+  </si>
+  <si>
+    <t>TI-99_4A</t>
+  </si>
+  <si>
+    <t>12,819 / 41,910</t>
+  </si>
+  <si>
+    <t>807,211 / 5,662,720</t>
+  </si>
+  <si>
+    <t>118 / 553</t>
+  </si>
+  <si>
+    <t>39 / 112</t>
   </si>
 </sst>
 </file>
@@ -465,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,75 +528,113 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>20211217</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="E2" s="1">
-        <v>13220</v>
+        <v>17567</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3">
         <v>0.22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K2" s="3">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>20211217</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="E3" s="1">
-        <v>17567</v>
+        <v>13220</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I3" s="3">
         <v>0.22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K3" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3">
         <v>0.31</v>
+      </c>
+      <c r="E4" s="1">
+        <v>16117</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K4">
+    <sortCondition ref="A2:A4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABF53E0-A744-436B-85F6-6701DCAA027A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FFD26D-96B2-42AF-8ACA-AAAB8ED54864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Core</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>39 / 112</t>
+  </si>
+  <si>
+    <t>Arcade-Galaga</t>
+  </si>
+  <si>
+    <t>18,387 / 41,910</t>
+  </si>
+  <si>
+    <t>803,442 / 5,662,720</t>
+  </si>
+  <si>
+    <t>67 / 112</t>
   </si>
 </sst>
 </file>
@@ -155,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,6 +176,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -480,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,114 +544,149 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4">
         <v>20211217</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="E2" s="1">
-        <v>17567</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="E2" s="4">
+        <v>20526</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5">
         <v>0.22</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0.31</v>
+      <c r="J2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>20211217</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="E3" s="1">
-        <v>13220</v>
+        <v>17567</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3">
         <v>0.22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K3" s="3">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>20211217</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13220</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="3">
         <v>0.31</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <v>16117</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I5" s="3">
         <v>0.21</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K5" s="3">
         <v>0.35</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K4">
-    <sortCondition ref="A2:A4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K5">
+    <sortCondition ref="A3:A5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FFD26D-96B2-42AF-8ACA-AAAB8ED54864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FD4827-C80E-4171-A1FD-9755654E077E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Core</t>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t>67 / 112</t>
+  </si>
+  <si>
+    <t>Genesis</t>
+  </si>
+  <si>
+    <t>21,362 / 41,910</t>
+  </si>
+  <si>
+    <t>2,674,108 / 5,662,720</t>
+  </si>
+  <si>
+    <t>360 / 553</t>
+  </si>
+  <si>
+    <t>46 / 112</t>
   </si>
 </sst>
 </file>
@@ -498,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,77 +631,112 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>20211217</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="E4" s="1">
-        <v>13220</v>
+        <v>28963</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3">
-        <v>0.15</v>
+        <v>0.47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K4" s="3">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>20211217</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13220</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="3">
         <v>0.31</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>16117</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="3">
         <v>0.21</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K6" s="3">
         <v>0.35</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K5">
-    <sortCondition ref="A3:A5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K6">
+    <sortCondition ref="A3:A6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FD4827-C80E-4171-A1FD-9755654E077E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE856BB-473C-42F7-9E1D-5A852F062A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Core</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>46 / 112</t>
+  </si>
+  <si>
+    <t>X68000</t>
+  </si>
+  <si>
+    <t>29,655 / 41,910</t>
+  </si>
+  <si>
+    <t>1,296,296 / 5,662,720</t>
+  </si>
+  <si>
+    <t>250 / 553</t>
+  </si>
+  <si>
+    <t>38 / 112</t>
   </si>
 </sst>
 </file>
@@ -513,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,6 +749,41 @@
         <v>0.35</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30780</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.34</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K6">
     <sortCondition ref="A3:A6"/>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE856BB-473C-42F7-9E1D-5A852F062A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF4356-902F-43CA-A955-D64AB15BD0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Core</t>
   </si>
@@ -154,6 +154,21 @@
   </si>
   <si>
     <t>38 / 112</t>
+  </si>
+  <si>
+    <t>AcornAtom</t>
+  </si>
+  <si>
+    <t>11,238 / 41,910</t>
+  </si>
+  <si>
+    <t>2,344,831 / 5,662,720</t>
+  </si>
+  <si>
+    <t>309 / 553</t>
+  </si>
+  <si>
+    <t>40 / 112</t>
   </si>
 </sst>
 </file>
@@ -528,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,217 +591,252 @@
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4">
         <v>20211217</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E2" s="4">
+        <v>13180</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20211217</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D3" s="5">
         <v>0.44</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E3" s="4">
         <v>20526</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G3" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I3" s="5">
         <v>0.22</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K3" s="5">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="E3" s="1">
-        <v>17567</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>20211217</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="E4" s="1">
-        <v>28963</v>
+        <v>17567</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3">
-        <v>0.47</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K4" s="3">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>20211217</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="E5" s="1">
-        <v>13220</v>
+        <v>28963</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3">
-        <v>0.15</v>
+        <v>0.47</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I5" s="3">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K5" s="3">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>20211217</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="E6" s="1">
-        <v>16117</v>
+        <v>13220</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I6" s="3">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K6" s="3">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>20211217</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E7" s="1">
+        <v>16117</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <v>0.71</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>30780</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="3">
         <v>0.23</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="3">
         <v>0.45</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K8" s="3">
         <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K6">
-    <sortCondition ref="A3:A6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K7">
+    <sortCondition ref="A4:A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF4356-902F-43CA-A955-D64AB15BD0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B238B44F-09FC-4A14-957C-3871394CDF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Core</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>40 / 112</t>
+  </si>
+  <si>
+    <t>ADCTest</t>
+  </si>
+  <si>
+    <t>7,924 / 41,910</t>
+  </si>
+  <si>
+    <t>327,109 / 5,662,720</t>
+  </si>
+  <si>
+    <t>49 / 553</t>
   </si>
 </sst>
 </file>
@@ -543,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,217 +638,252 @@
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4">
         <v>20211217</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E3" s="4">
+        <v>12048</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20211217</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="5">
         <v>0.44</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E4" s="4">
         <v>20526</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I4" s="5">
         <v>0.22</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K4" s="5">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="E4" s="1">
-        <v>17567</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.31</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>20211217</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="E5" s="1">
-        <v>28963</v>
+        <v>17567</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3">
-        <v>0.47</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K5" s="3">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>20211217</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="E6" s="1">
-        <v>13220</v>
+        <v>28963</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G6" s="3">
-        <v>0.15</v>
+        <v>0.47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I6" s="3">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K6" s="3">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>20211217</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="E7" s="1">
-        <v>16117</v>
+        <v>13220</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G7" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I7" s="3">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K7" s="3">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>20211217</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E8" s="1">
+        <v>16117</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <v>0.71</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>30780</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <v>0.23</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I9" s="3">
         <v>0.45</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K9" s="3">
         <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K7">
-    <sortCondition ref="A4:A7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:K8">
+    <sortCondition ref="A5:A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B238B44F-09FC-4A14-957C-3871394CDF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E837D49-D9E1-4194-A4FC-1910C3F3B931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Core</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>49 / 553</t>
+  </si>
+  <si>
+    <t>AliceMC10</t>
+  </si>
+  <si>
+    <t>9,107 / 41,910</t>
+  </si>
+  <si>
+    <t>564,587 / 5,662,720</t>
+  </si>
+  <si>
+    <t>78 / 553</t>
   </si>
 </sst>
 </file>
@@ -555,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,217 +685,252 @@
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B4" s="4">
         <v>20211217</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="E4" s="4">
+        <v>11015</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20211217</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="5">
         <v>0.44</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E5" s="4">
         <v>20526</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G5" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I5" s="5">
         <v>0.22</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K5" s="5">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="E5" s="1">
-        <v>17567</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.31</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>20211217</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="E6" s="1">
-        <v>28963</v>
+        <v>17567</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3">
-        <v>0.47</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I6" s="3">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K6" s="3">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>20211217</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="E7" s="1">
-        <v>13220</v>
+        <v>28963</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3">
-        <v>0.15</v>
+        <v>0.47</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I7" s="3">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K7" s="3">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>20211217</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="E8" s="1">
-        <v>16117</v>
+        <v>13220</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G8" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I8" s="3">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K8" s="3">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>20211217</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E9" s="1">
+        <v>16117</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>0.71</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <v>30780</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <v>0.23</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I10" s="3">
         <v>0.45</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K10" s="3">
         <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:K8">
-    <sortCondition ref="A5:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:K9">
+    <sortCondition ref="A6:A9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E837D49-D9E1-4194-A4FC-1910C3F3B931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024AD46C-FB8C-4EBB-9B28-C0176269C6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Core</t>
   </si>
@@ -193,6 +193,21 @@
   </si>
   <si>
     <t>78 / 553</t>
+  </si>
+  <si>
+    <t>Altair8800</t>
+  </si>
+  <si>
+    <t>18,359 / 41,910</t>
+  </si>
+  <si>
+    <t>3,544,636 / 5,662,720</t>
+  </si>
+  <si>
+    <t>483 / 553</t>
+  </si>
+  <si>
+    <t>34 / 112</t>
   </si>
 </sst>
 </file>
@@ -567,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,217 +735,252 @@
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4">
         <v>20211217</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D5" s="5">
         <v>0.44</v>
       </c>
       <c r="E5" s="4">
+        <v>28874</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20211217</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="E6" s="4">
         <v>20526</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G6" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I6" s="5">
         <v>0.22</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K6" s="5">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="E6" s="1">
-        <v>17567</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.31</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>20211217</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="E7" s="1">
-        <v>28963</v>
+        <v>17567</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G7" s="3">
-        <v>0.47</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I7" s="3">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K7" s="3">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>20211217</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="E8" s="1">
-        <v>13220</v>
+        <v>28963</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3">
-        <v>0.15</v>
+        <v>0.47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I8" s="3">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K8" s="3">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
         <v>20211217</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="E9" s="1">
-        <v>16117</v>
+        <v>13220</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I9" s="3">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K9" s="3">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>20211217</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E10" s="1">
+        <v>16117</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="3">
         <v>0.71</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <v>30780</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <v>0.23</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="3">
         <v>0.45</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K11" s="3">
         <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:K9">
-    <sortCondition ref="A6:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:K10">
+    <sortCondition ref="A7:A10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024AD46C-FB8C-4EBB-9B28-C0176269C6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A09382-ADB3-4BCB-AE95-88EDA1EBA802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Core</t>
   </si>
@@ -208,6 +208,21 @@
   </si>
   <si>
     <t>34 / 112</t>
+  </si>
+  <si>
+    <t>AppleI</t>
+  </si>
+  <si>
+    <t>7,013 / 41,910</t>
+  </si>
+  <si>
+    <t>1,422,552 / 5,662,720</t>
+  </si>
+  <si>
+    <t>180 / 553</t>
+  </si>
+  <si>
+    <t>29 / 112</t>
   </si>
 </sst>
 </file>
@@ -582,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,217 +785,252 @@
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4">
         <v>20211217</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9233</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20211217</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="5">
         <v>0.44</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>20526</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G7" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I7" s="5">
         <v>0.22</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K7" s="5">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="E7" s="1">
-        <v>17567</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>20211217</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="E8" s="1">
-        <v>28963</v>
+        <v>17567</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G8" s="3">
-        <v>0.47</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I8" s="3">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K8" s="3">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>20211217</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="E9" s="1">
-        <v>13220</v>
+        <v>28963</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3">
-        <v>0.15</v>
+        <v>0.47</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I9" s="3">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K9" s="3">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
         <v>20211217</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="E10" s="1">
-        <v>16117</v>
+        <v>13220</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G10" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I10" s="3">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K10" s="3">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>20211217</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E11" s="1">
+        <v>16117</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>0.71</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>30780</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="3">
         <v>0.23</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I12" s="3">
         <v>0.45</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K12" s="3">
         <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:K10">
-    <sortCondition ref="A7:A10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:K11">
+    <sortCondition ref="A8:A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A09382-ADB3-4BCB-AE95-88EDA1EBA802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE62E86-BD3A-4885-BC93-8FC7FA02F892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Core</t>
   </si>
@@ -210,9 +210,6 @@
     <t>34 / 112</t>
   </si>
   <si>
-    <t>AppleI</t>
-  </si>
-  <si>
     <t>7,013 / 41,910</t>
   </si>
   <si>
@@ -223,6 +220,24 @@
   </si>
   <si>
     <t>29 / 112</t>
+  </si>
+  <si>
+    <t>Apple-I</t>
+  </si>
+  <si>
+    <t>Apple-II</t>
+  </si>
+  <si>
+    <t>14,991 / 41,910</t>
+  </si>
+  <si>
+    <t>2,801,490 / 5,662,720</t>
+  </si>
+  <si>
+    <t>362 / 553</t>
+  </si>
+  <si>
+    <t>37 / 112</t>
   </si>
 </sst>
 </file>
@@ -597,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,13 +800,13 @@
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20211217</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" s="4">
-        <v>20211217</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D6" s="5">
         <v>0.17</v>
@@ -800,19 +815,19 @@
         <v>9233</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="5">
         <v>0.25</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="5">
         <v>0.33</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K6" s="5">
         <v>0.26</v>
@@ -820,217 +835,252 @@
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20211217</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="E7" s="4">
+        <v>17904</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4">
-        <v>20211217</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B8" s="4">
+        <v>20211217</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D8" s="5">
         <v>0.44</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="4">
         <v>20526</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G8" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I8" s="5">
         <v>0.22</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K8" s="5">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="E8" s="1">
-        <v>17567</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.31</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>20211217</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="E9" s="1">
-        <v>28963</v>
+        <v>17567</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G9" s="3">
-        <v>0.47</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I9" s="3">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K9" s="3">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>20211217</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="E10" s="1">
-        <v>13220</v>
+        <v>28963</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3">
-        <v>0.15</v>
+        <v>0.47</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I10" s="3">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K10" s="3">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>20211217</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="E11" s="1">
-        <v>16117</v>
+        <v>13220</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I11" s="3">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K11" s="3">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E12" s="1">
+        <v>16117</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B13" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>0.71</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>30780</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <v>0.23</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="3">
         <v>0.45</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K13" s="3">
         <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:K11">
-    <sortCondition ref="A8:A11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:K12">
+    <sortCondition ref="A9:A12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE62E86-BD3A-4885-BC93-8FC7FA02F892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CA3467-E83B-4D2A-A0EE-22BEEE4331C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>Core</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>37 / 112</t>
+  </si>
+  <si>
+    <t>Apogee</t>
+  </si>
+  <si>
+    <t>9,505 / 41,910</t>
+  </si>
+  <si>
+    <t>1,105,315 / 5,662,720</t>
+  </si>
+  <si>
+    <t>149 / 553</t>
   </si>
 </sst>
 </file>
@@ -612,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +850,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="4">
-        <v>20211217</v>
+        <v>20211218</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>64</v>
@@ -870,217 +882,252 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20211218</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="E8" s="4">
+        <v>11739</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <v>20211217</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="5">
         <v>0.44</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>20526</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G9" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I9" s="5">
         <v>0.22</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K9" s="5">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="E9" s="1">
-        <v>17567</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.31</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>20211217</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="E10" s="1">
-        <v>28963</v>
+        <v>17567</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G10" s="3">
-        <v>0.47</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I10" s="3">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K10" s="3">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>20211217</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="E11" s="1">
-        <v>13220</v>
+        <v>28963</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3">
-        <v>0.15</v>
+        <v>0.47</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I11" s="3">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K11" s="3">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1">
         <v>20211217</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="E12" s="1">
-        <v>16117</v>
+        <v>13220</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I12" s="3">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K12" s="3">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>20211217</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E13" s="1">
+        <v>16117</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>0.71</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>30780</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <v>0.23</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I14" s="3">
         <v>0.45</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K14" s="3">
         <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:K12">
-    <sortCondition ref="A9:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:K13">
+    <sortCondition ref="A10:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CA3467-E83B-4D2A-A0EE-22BEEE4331C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E87322-AB57-4CF8-8119-AA521DB8658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>Core</t>
   </si>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t>149 / 553</t>
+  </si>
+  <si>
+    <t>Amstrad-PCW</t>
+  </si>
+  <si>
+    <t>11,326 / 41,910</t>
+  </si>
+  <si>
+    <t>2,725,379 / 5,662,720</t>
+  </si>
+  <si>
+    <t>339 / 553</t>
   </si>
 </sst>
 </file>
@@ -624,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,101 +824,101 @@
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B6" s="4">
-        <v>20211217</v>
+        <v>20211218</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="E6" s="4">
-        <v>9233</v>
+        <v>12600</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G6" s="5">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I6" s="5">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="K6" s="5">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="4">
-        <v>20211218</v>
+        <v>20211217</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="E7" s="4">
-        <v>17904</v>
+        <v>9233</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G7" s="5">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I7" s="5">
-        <v>0.65</v>
+        <v>0.33</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K7" s="5">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B8" s="4">
         <v>20211218</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="E8" s="4">
-        <v>11739</v>
+        <v>17904</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G8" s="5">
-        <v>0.2</v>
+        <v>0.49</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I8" s="5">
-        <v>0.27</v>
+        <v>0.65</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>67</v>
@@ -917,217 +929,252 @@
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20211218</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="E9" s="4">
+        <v>11739</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="4">
         <v>20211217</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="5">
         <v>0.44</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <v>20526</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G10" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I10" s="5">
         <v>0.22</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K10" s="5">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="E10" s="1">
-        <v>17567</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0.31</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>20211217</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="E11" s="1">
-        <v>28963</v>
+        <v>17567</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G11" s="3">
-        <v>0.47</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I11" s="3">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K11" s="3">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>20211217</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="E12" s="1">
-        <v>13220</v>
+        <v>28963</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G12" s="3">
-        <v>0.15</v>
+        <v>0.47</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I12" s="3">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K12" s="3">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
         <v>20211217</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="E13" s="1">
-        <v>16117</v>
+        <v>13220</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G13" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I13" s="3">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K13" s="3">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>20211217</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E14" s="1">
+        <v>16117</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="3">
         <v>0.71</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <v>30780</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
         <v>0.23</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I15" s="3">
         <v>0.45</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K15" s="3">
         <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:K13">
-    <sortCondition ref="A10:A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:K14">
+    <sortCondition ref="A11:A14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E87322-AB57-4CF8-8119-AA521DB8658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFFAA25-7FAC-4A29-AC15-96D028AA0847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>Core</t>
   </si>
@@ -262,6 +262,33 @@
   </si>
   <si>
     <t>339 / 553</t>
+  </si>
+  <si>
+    <t>Aquarius</t>
+  </si>
+  <si>
+    <t>Arcade-Arkanoid</t>
+  </si>
+  <si>
+    <t>11,486 / 41,910</t>
+  </si>
+  <si>
+    <t>1,806,290 / 5,662,720</t>
+  </si>
+  <si>
+    <t>240 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-Asteroids</t>
+  </si>
+  <si>
+    <t>8,479 / 41,910</t>
+  </si>
+  <si>
+    <t>2,520,451 / 5,662,720</t>
+  </si>
+  <si>
+    <t>316 / 553</t>
   </si>
 </sst>
 </file>
@@ -636,15 +663,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="17.5703125" style="1"/>
+    <col min="1" max="16384" width="21.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -964,217 +991,322 @@
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20211218</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E10" s="4">
+        <v>12600</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="4">
+        <v>20211218</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E11" s="4">
+        <v>17026</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="4">
+        <v>20211218</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10368</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B13" s="4">
         <v>20211217</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D13" s="5">
         <v>0.44</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E13" s="4">
         <v>20526</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G13" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I13" s="5">
         <v>0.22</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K13" s="5">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="E11" s="1">
-        <v>17567</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="E12" s="1">
-        <v>28963</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.47</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="1">
-        <v>13220</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.32</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>20211217</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="E14" s="1">
-        <v>16117</v>
+        <v>17567</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G14" s="3">
         <v>0.14000000000000001</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I14" s="3">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K14" s="3">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1">
         <v>20211217</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="E15" s="1">
+        <v>28963</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13220</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E17" s="1">
+        <v>16117</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D18" s="3">
         <v>0.71</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E18" s="1">
         <v>30780</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G18" s="3">
         <v>0.23</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I18" s="3">
         <v>0.45</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K18" s="3">
         <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:K14">
-    <sortCondition ref="A11:A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:K17">
+    <sortCondition ref="A14:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFFAA25-7FAC-4A29-AC15-96D028AA0847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BE9B21-98D7-436B-94E2-907C3E0A4D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>Core</t>
   </si>
@@ -289,6 +289,30 @@
   </si>
   <si>
     <t>316 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-AsteroidsDeluxe</t>
+  </si>
+  <si>
+    <t>8,453 / 41,910</t>
+  </si>
+  <si>
+    <t>2,553,219 / 5,662,720</t>
+  </si>
+  <si>
+    <t>320 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-Atetris</t>
+  </si>
+  <si>
+    <t>9,355 / 41,910</t>
+  </si>
+  <si>
+    <t>1,567,843 / 5,662,720</t>
+  </si>
+  <si>
+    <t>207 / 553</t>
   </si>
 </sst>
 </file>
@@ -663,15 +687,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="21.85546875" style="1"/>
+    <col min="1" max="1" width="23" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="21.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1096,217 +1131,287 @@
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="4">
+        <v>20211218</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10521</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="4">
+        <v>20211218</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="E14" s="4">
+        <v>12755</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B15" s="4">
         <v>20211217</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D15" s="5">
         <v>0.44</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E15" s="4">
         <v>20526</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G15" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I15" s="5">
         <v>0.22</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K15" s="5">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="E14" s="1">
-        <v>17567</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="E15" s="1">
-        <v>28963</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.47</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.41</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>20211217</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="E16" s="1">
-        <v>13220</v>
+        <v>17567</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G16" s="3">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I16" s="3">
         <v>0.22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K16" s="3">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1">
         <v>20211217</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3">
-        <v>0.31</v>
+        <v>0.51</v>
       </c>
       <c r="E17" s="1">
-        <v>16117</v>
+        <v>28963</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G17" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I17" s="3">
-        <v>0.21</v>
+        <v>0.65</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K17" s="3">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
         <v>20211217</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="1">
+        <v>13220</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E19" s="1">
+        <v>16117</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D20" s="3">
         <v>0.71</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E20" s="1">
         <v>30780</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G20" s="3">
         <v>0.23</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I20" s="3">
         <v>0.45</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K20" s="3">
         <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:K17">
-    <sortCondition ref="A14:A17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:K19">
+    <sortCondition ref="A16:A19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BE9B21-98D7-436B-94E2-907C3E0A4D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC27AE71-DD22-4B56-BED7-83632C249579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
   <si>
     <t>Core</t>
   </si>
@@ -313,6 +313,21 @@
   </si>
   <si>
     <t>207 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-Astrocade</t>
+  </si>
+  <si>
+    <t>12,022 / 41,910</t>
+  </si>
+  <si>
+    <t>3,182,307 / 5,662,720</t>
+  </si>
+  <si>
+    <t>402 / 553</t>
+  </si>
+  <si>
+    <t>41 / 112</t>
   </si>
 </sst>
 </file>
@@ -687,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,252 +1181,287 @@
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B14" s="4">
         <v>20211218</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D14" s="5">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E14" s="4">
-        <v>12755</v>
+        <v>13751</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G14" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I14" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="5">
         <v>0.37</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0.31</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20211218</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="E15" s="4">
+        <v>12755</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="4">
         <v>20211217</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="5">
         <v>0.44</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>20526</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G16" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I16" s="5">
         <v>0.22</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K16" s="5">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="E16" s="1">
-        <v>17567</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0.31</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>20211217</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="E17" s="1">
-        <v>28963</v>
+        <v>17567</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G17" s="3">
-        <v>0.47</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I17" s="3">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K17" s="3">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1">
         <v>20211217</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="E18" s="1">
-        <v>13220</v>
+        <v>28963</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G18" s="3">
-        <v>0.15</v>
+        <v>0.47</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I18" s="3">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K18" s="3">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1">
         <v>20211217</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="E19" s="1">
-        <v>16117</v>
+        <v>13220</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G19" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I19" s="3">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K19" s="3">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>20211217</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E20" s="1">
+        <v>16117</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>0.71</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>30780</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>0.23</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I21" s="3">
         <v>0.45</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K21" s="3">
         <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:K19">
-    <sortCondition ref="A16:A19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:K20">
+    <sortCondition ref="A17:A20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC27AE71-DD22-4B56-BED7-83632C249579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0622F0-9316-4D36-98E2-8DA8EB4E94D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="141">
   <si>
     <t>Core</t>
   </si>
@@ -328,6 +328,135 @@
   </si>
   <si>
     <t>41 / 112</t>
+  </si>
+  <si>
+    <t>Amstrad</t>
+  </si>
+  <si>
+    <t>13,748 / 41,910</t>
+  </si>
+  <si>
+    <t>627,843 / 5,662,720</t>
+  </si>
+  <si>
+    <t>91 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-Bagman</t>
+  </si>
+  <si>
+    <t>12,188 / 41,910</t>
+  </si>
+  <si>
+    <t>1,533,394 / 5,662,720</t>
+  </si>
+  <si>
+    <t>208 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-Berzerk</t>
+  </si>
+  <si>
+    <t>9,405 / 41,910</t>
+  </si>
+  <si>
+    <t>683,410 / 5,662,720</t>
+  </si>
+  <si>
+    <t>101 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-BlackWidow</t>
+  </si>
+  <si>
+    <t>12,358 / 41,910</t>
+  </si>
+  <si>
+    <t>2,270,594 / 5,662,720</t>
+  </si>
+  <si>
+    <t>291 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-BombJack</t>
+  </si>
+  <si>
+    <t>15,025 / 41,910</t>
+  </si>
+  <si>
+    <t>1,533,938 / 5,662,720</t>
+  </si>
+  <si>
+    <t>209 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-Breakout</t>
+  </si>
+  <si>
+    <t>8,956 / 41,910</t>
+  </si>
+  <si>
+    <t>463,299 / 5,662,720</t>
+  </si>
+  <si>
+    <t>Arcade-BurgerTime</t>
+  </si>
+  <si>
+    <t>10,929 / 41,910</t>
+  </si>
+  <si>
+    <t>995,330 / 5,662,720</t>
+  </si>
+  <si>
+    <t>140 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-BurningRubber</t>
+  </si>
+  <si>
+    <t>24,592 / 41,910</t>
+  </si>
+  <si>
+    <t>856,226 / 5,662,720</t>
+  </si>
+  <si>
+    <t>125 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-CanyonBomber</t>
+  </si>
+  <si>
+    <t>8,933 / 41,910</t>
+  </si>
+  <si>
+    <t>453,571 / 5,662,720</t>
+  </si>
+  <si>
+    <t>74 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-Centipede</t>
+  </si>
+  <si>
+    <t>17,010 / 41,910</t>
+  </si>
+  <si>
+    <t>509,651 / 5,662,720</t>
+  </si>
+  <si>
+    <t>84 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-ComputerSpace</t>
+  </si>
+  <si>
+    <t>8,508 / 41,910</t>
+  </si>
+  <si>
+    <t>333,427 / 5,662,720</t>
+  </si>
+  <si>
+    <t>52 / 553</t>
   </si>
 </sst>
 </file>
@@ -702,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,136 +1030,136 @@
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B6" s="4">
         <v>20211218</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D6" s="5">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="E6" s="4">
-        <v>12600</v>
+        <v>16587</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="G6" s="5">
-        <v>0.48</v>
+        <v>0.11</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="I6" s="5">
-        <v>0.61</v>
+        <v>0.16</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="K6" s="5">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B7" s="4">
-        <v>20211217</v>
+        <v>20211218</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D7" s="5">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="E7" s="4">
-        <v>9233</v>
+        <v>12600</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G7" s="5">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I7" s="5">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="K7" s="5">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="4">
-        <v>20211218</v>
+        <v>20211217</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D8" s="5">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="E8" s="4">
-        <v>17904</v>
+        <v>9233</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G8" s="5">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I8" s="5">
-        <v>0.65</v>
+        <v>0.33</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K8" s="5">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B9" s="4">
         <v>20211218</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D9" s="5">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="E9" s="4">
-        <v>11739</v>
+        <v>17904</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G9" s="5">
-        <v>0.2</v>
+        <v>0.49</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I9" s="5">
-        <v>0.27</v>
+        <v>0.65</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>67</v>
@@ -1041,427 +1170,812 @@
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B10" s="4">
         <v>20211218</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="E10" s="4">
+        <v>11739</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="5">
         <v>0.27</v>
       </c>
-      <c r="E10" s="4">
-        <v>12600</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.61</v>
-      </c>
       <c r="J10" s="4" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="K10" s="5">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <v>20211218</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D11" s="5">
         <v>0.27</v>
       </c>
       <c r="E11" s="4">
-        <v>17026</v>
+        <v>12600</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G11" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="5">
         <v>0.32</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0.34</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4">
         <v>20211218</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D12" s="5">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="E12" s="4">
-        <v>10368</v>
+        <v>17026</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G12" s="5">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I12" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.43</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K12" s="5">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B13" s="4">
         <v>20211218</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D13" s="5">
         <v>0.2</v>
       </c>
       <c r="E13" s="4">
-        <v>10521</v>
+        <v>10368</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G13" s="5">
         <v>0.45</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I13" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="K13" s="5">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B14" s="4">
         <v>20211218</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D14" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="E14" s="4">
-        <v>13751</v>
+        <v>10521</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G14" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I14" s="5">
-        <v>0.73</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="K14" s="5">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B15" s="4">
         <v>20211218</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D15" s="5">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E15" s="4">
-        <v>12755</v>
+        <v>13751</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G15" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I15" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="5">
         <v>0.37</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0.31</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B16" s="4">
-        <v>20211217</v>
+        <v>20211218</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="E16" s="4">
-        <v>20526</v>
+        <v>12755</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="G16" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="I16" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="4">
+        <v>20211218</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E17" s="4">
+        <v>16083</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="4">
+        <v>20211218</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="5">
         <v>0.22</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="E17" s="1">
-        <v>17567</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="E18" s="4">
+        <v>12601</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K18" s="5">
         <v>0.31</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="E18" s="1">
-        <v>28963</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.47</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="1">
-        <v>13220</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0.32</v>
+    <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="4">
+        <v>20211218</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E19" s="4">
+        <v>16119</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="B20" s="1">
-        <v>20211217</v>
+        <v>20211218</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="D20" s="3">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="E20" s="1">
-        <v>16117</v>
+        <v>18474</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="G20" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="I20" s="3">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="K20" s="3">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20211218</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="E21" s="1">
+        <v>12585</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20211218</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="E22" s="1">
+        <v>14857</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20211218</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="E23" s="1">
+        <v>30037</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20211218</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="E24" s="1">
+        <v>11335</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="1">
+        <v>20211218</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="E25" s="1">
+        <v>28678</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20211218</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>10378</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>20211217</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="E27" s="4">
+        <v>20526</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="E28" s="1">
+        <v>17567</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="E29" s="1">
+        <v>28963</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E30" s="1">
+        <v>13220</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E31" s="1">
+        <v>16117</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B32" s="1">
         <v>20211217</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D32" s="3">
         <v>0.71</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E32" s="1">
         <v>30780</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G32" s="3">
         <v>0.23</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I32" s="3">
         <v>0.45</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K32" s="3">
         <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:K20">
-    <sortCondition ref="A17:A20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:K31">
+    <sortCondition ref="A28:A31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0622F0-9316-4D36-98E2-8DA8EB4E94D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7759186-1A31-4677-8A7F-D7234CFDEB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="146">
   <si>
     <t>Core</t>
   </si>
@@ -457,6 +457,21 @@
   </si>
   <si>
     <t>52 / 553</t>
+  </si>
+  <si>
+    <t>ao486</t>
+  </si>
+  <si>
+    <t>33,529 / 41,910</t>
+  </si>
+  <si>
+    <t>3,492,306 / 5,662,720</t>
+  </si>
+  <si>
+    <t>447 / 553</t>
+  </si>
+  <si>
+    <t>42 / 112</t>
   </si>
 </sst>
 </file>
@@ -831,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,101 +1115,101 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="B8" s="4">
-        <v>20211217</v>
+        <v>20211218</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="D8" s="5">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="E8" s="4">
-        <v>9233</v>
+        <v>30143</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="G8" s="5">
-        <v>0.25</v>
+        <v>0.62</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="I8" s="5">
-        <v>0.33</v>
+        <v>0.81</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="K8" s="5">
-        <v>0.26</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="4">
-        <v>20211218</v>
+        <v>20211217</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="E9" s="4">
-        <v>17904</v>
+        <v>9233</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G9" s="5">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I9" s="5">
-        <v>0.65</v>
+        <v>0.33</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K9" s="5">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B10" s="4">
         <v>20211218</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D10" s="5">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="E10" s="4">
-        <v>11739</v>
+        <v>17904</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G10" s="5">
-        <v>0.2</v>
+        <v>0.49</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I10" s="5">
-        <v>0.27</v>
+        <v>0.65</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>67</v>
@@ -1205,381 +1220,381 @@
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4">
         <v>20211218</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D11" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="E11" s="4">
+        <v>11739</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="5">
         <v>0.27</v>
       </c>
-      <c r="E11" s="4">
-        <v>12600</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0.61</v>
-      </c>
       <c r="J11" s="4" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="K11" s="5">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4">
         <v>20211218</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D12" s="5">
         <v>0.27</v>
       </c>
       <c r="E12" s="4">
-        <v>17026</v>
+        <v>12600</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G12" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="5">
         <v>0.32</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0.34</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <v>20211218</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D13" s="5">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="E13" s="4">
-        <v>10368</v>
+        <v>17026</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G13" s="5">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I13" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.43</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K13" s="5">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B14" s="4">
         <v>20211218</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D14" s="5">
         <v>0.2</v>
       </c>
       <c r="E14" s="4">
-        <v>10521</v>
+        <v>10368</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G14" s="5">
         <v>0.45</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I14" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="K14" s="5">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B15" s="4">
         <v>20211218</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D15" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="4">
-        <v>13751</v>
+        <v>10521</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G15" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I15" s="5">
-        <v>0.73</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="K15" s="5">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B16" s="4">
         <v>20211218</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D16" s="5">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E16" s="4">
-        <v>12755</v>
+        <v>13751</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G16" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I16" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="5">
         <v>0.37</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0.31</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B17" s="4">
         <v>20211218</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D17" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.22</v>
       </c>
       <c r="E17" s="4">
-        <v>16083</v>
+        <v>12755</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G17" s="5">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="I17" s="5">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="K17" s="5">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B18" s="4">
         <v>20211218</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D18" s="5">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E18" s="4">
-        <v>12601</v>
+        <v>16083</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G18" s="5">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I18" s="5">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="K18" s="5">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B19" s="4">
         <v>20211218</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="E19" s="4">
+        <v>12601</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="4">
+        <v>20211218</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>16119</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G20" s="5">
         <v>0.4</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I20" s="5">
         <v>0.53</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="1">
-        <v>20211218</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="E20" s="1">
-        <v>18474</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.27</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="5">
         <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B21" s="1">
         <v>20211218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D21" s="3">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="E21" s="1">
-        <v>12585</v>
+        <v>18474</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G21" s="3">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="I21" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>57</v>
@@ -1590,101 +1605,101 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B22" s="1">
         <v>20211218</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D22" s="3">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="E22" s="1">
-        <v>14857</v>
+        <v>12585</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G22" s="3">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="I22" s="3">
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="K22" s="3">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B23" s="1">
         <v>20211218</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D23" s="3">
-        <v>0.59</v>
+        <v>0.26</v>
       </c>
       <c r="E23" s="1">
-        <v>30037</v>
+        <v>14857</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G23" s="3">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I23" s="3">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K23" s="3">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B24" s="1">
         <v>20211218</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D24" s="3">
-        <v>0.21</v>
+        <v>0.59</v>
       </c>
       <c r="E24" s="1">
-        <v>11335</v>
+        <v>30037</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G24" s="3">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I24" s="3">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>39</v>
@@ -1695,287 +1710,322 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B25" s="1">
         <v>20211218</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D25" s="3">
-        <v>0.41</v>
+        <v>0.21</v>
       </c>
       <c r="E25" s="1">
-        <v>28678</v>
+        <v>11335</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G25" s="3">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I25" s="3">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K25" s="3">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B26" s="1">
         <v>20211218</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="E26" s="1">
+        <v>28678</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="1">
+        <v>20211218</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D27" s="3">
         <v>0.2</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>10378</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G27" s="3">
         <v>0.06</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I27" s="3">
         <v>0.09</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K27" s="3">
         <v>0.34</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B28" s="4">
         <v>20211217</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D28" s="5">
         <v>0.44</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <v>20526</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G28" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I28" s="5">
         <v>0.22</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K28" s="5">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="1">
-        <v>20211217</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="E28" s="1">
-        <v>17567</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0.31</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1">
         <v>20211217</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D29" s="3">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="E29" s="1">
-        <v>28963</v>
+        <v>17567</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G29" s="3">
-        <v>0.47</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I29" s="3">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K29" s="3">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>20211217</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D30" s="3">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="E30" s="1">
-        <v>13220</v>
+        <v>28963</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G30" s="3">
-        <v>0.15</v>
+        <v>0.47</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I30" s="3">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K30" s="3">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1">
         <v>20211217</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D31" s="3">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="E31" s="1">
-        <v>16117</v>
+        <v>13220</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G31" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I31" s="3">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K31" s="3">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1">
         <v>20211217</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E32" s="1">
+        <v>16117</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D33" s="3">
         <v>0.71</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E33" s="1">
         <v>30780</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="3">
         <v>0.23</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I33" s="3">
         <v>0.45</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K33" s="3">
         <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:K31">
-    <sortCondition ref="A28:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:K32">
+    <sortCondition ref="A29:A32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Data Summary.xlsx
+++ b/Data Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\rpt_MiSTer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7759186-1A31-4677-8A7F-D7234CFDEB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DA3C12-31B0-4FCE-A420-8D07778D0E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C2B680-BAE7-40E2-B67E-A259EDFD5F13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="244">
   <si>
     <t>Core</t>
   </si>
@@ -472,6 +472,300 @@
   </si>
   <si>
     <t>42 / 112</t>
+  </si>
+  <si>
+    <t>Arcade-Cosmic</t>
+  </si>
+  <si>
+    <t>17,688 / 41,910</t>
+  </si>
+  <si>
+    <t>696,146 / 5,662,720</t>
+  </si>
+  <si>
+    <t>105 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-CrazyBalloon</t>
+  </si>
+  <si>
+    <t>19,985 / 41,910</t>
+  </si>
+  <si>
+    <t>587,391 / 5,662,720</t>
+  </si>
+  <si>
+    <t>92 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-CrazyClimber</t>
+  </si>
+  <si>
+    <t>9,546 / 41,910</t>
+  </si>
+  <si>
+    <t>911,811 / 5,662,720</t>
+  </si>
+  <si>
+    <t>135 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-CrazyKong</t>
+  </si>
+  <si>
+    <t>10,013 / 41,910</t>
+  </si>
+  <si>
+    <t>1,518,307 / 5,662,720</t>
+  </si>
+  <si>
+    <t>206 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-Defender</t>
+  </si>
+  <si>
+    <t>10,068 / 41,910</t>
+  </si>
+  <si>
+    <t>1,111,730 / 5,662,720</t>
+  </si>
+  <si>
+    <t>154 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-DigDug</t>
+  </si>
+  <si>
+    <t>12,591 / 41,910</t>
+  </si>
+  <si>
+    <t>923,842 / 5,662,720</t>
+  </si>
+  <si>
+    <t>Arcade-Dominos</t>
+  </si>
+  <si>
+    <t>8,687 / 41,910</t>
+  </si>
+  <si>
+    <t>457,027 / 5,662,720</t>
+  </si>
+  <si>
+    <t>73 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-DonkeyKong</t>
+  </si>
+  <si>
+    <t>13,626 / 41,910</t>
+  </si>
+  <si>
+    <t>1,491,730 / 5,662,720</t>
+  </si>
+  <si>
+    <t>Arcade-DonkeyKong3</t>
+  </si>
+  <si>
+    <t>11,718 / 41,910</t>
+  </si>
+  <si>
+    <t>1,083,251 / 5,662,720</t>
+  </si>
+  <si>
+    <t>156 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-DonkeyKongJunior</t>
+  </si>
+  <si>
+    <t>14,086 / 41,910</t>
+  </si>
+  <si>
+    <t>2,056,322 / 5,662,720</t>
+  </si>
+  <si>
+    <t>279 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-DottoriKun</t>
+  </si>
+  <si>
+    <t>8,845 / 41,910</t>
+  </si>
+  <si>
+    <t>471,874 / 5,662,720</t>
+  </si>
+  <si>
+    <t>70 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-Druaga</t>
+  </si>
+  <si>
+    <t>11,385 / 41,910</t>
+  </si>
+  <si>
+    <t>2,167,171 / 5,662,720</t>
+  </si>
+  <si>
+    <t>288 / 553</t>
+  </si>
+  <si>
+    <t>30 / 112</t>
+  </si>
+  <si>
+    <t>Arcade-Finalizer</t>
+  </si>
+  <si>
+    <t>14,584 / 41,910</t>
+  </si>
+  <si>
+    <t>1,708,402 / 5,662,720</t>
+  </si>
+  <si>
+    <t>237 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-FoodFight</t>
+  </si>
+  <si>
+    <t>10,724 / 41,910</t>
+  </si>
+  <si>
+    <t>1,234,339 / 5,662,720</t>
+  </si>
+  <si>
+    <t>177 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-Frenzy</t>
+  </si>
+  <si>
+    <t>9,425 / 41,910</t>
+  </si>
+  <si>
+    <t>698,898 / 5,662,720</t>
+  </si>
+  <si>
+    <t>103 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-Galaxian</t>
+  </si>
+  <si>
+    <t>14,918 / 41,910</t>
+  </si>
+  <si>
+    <t>821,698 / 5,662,720</t>
+  </si>
+  <si>
+    <t>122 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-Gaplus</t>
+  </si>
+  <si>
+    <t>13,417 / 41,910</t>
+  </si>
+  <si>
+    <t>1,589,507 / 5,662,720</t>
+  </si>
+  <si>
+    <t>220 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-Gauntlet</t>
+  </si>
+  <si>
+    <t>26,582 / 41,910</t>
+  </si>
+  <si>
+    <t>4,117,170 / 5,662,720</t>
+  </si>
+  <si>
+    <t>512 / 553</t>
+  </si>
+  <si>
+    <t>65 / 112</t>
+  </si>
+  <si>
+    <t>Arcade-Gyruss</t>
+  </si>
+  <si>
+    <t>18,308 / 41,910</t>
+  </si>
+  <si>
+    <t>1,250,162 / 5,662,720</t>
+  </si>
+  <si>
+    <t>183 / 553</t>
+  </si>
+  <si>
+    <t>74 / 112</t>
+  </si>
+  <si>
+    <t>Arcade-IremM62</t>
+  </si>
+  <si>
+    <t>22,443 / 41,910</t>
+  </si>
+  <si>
+    <t>1,072,114 / 5,662,720</t>
+  </si>
+  <si>
+    <t>157 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-IronHorse</t>
+  </si>
+  <si>
+    <t>15,999 / 41,910</t>
+  </si>
+  <si>
+    <t>2,100,446 / 5,662,720</t>
+  </si>
+  <si>
+    <t>289 / 553</t>
+  </si>
+  <si>
+    <t>43 / 112</t>
+  </si>
+  <si>
+    <t>Arcade-Jackal</t>
+  </si>
+  <si>
+    <t>17,152 / 41,910</t>
+  </si>
+  <si>
+    <t>3,658,328 / 5,662,720</t>
+  </si>
+  <si>
+    <t>477 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-Jailbreak</t>
+  </si>
+  <si>
+    <t>14,760 / 41,910</t>
+  </si>
+  <si>
+    <t>1,619,186 / 5,662,720</t>
+  </si>
+  <si>
+    <t>224 / 553</t>
+  </si>
+  <si>
+    <t>Arcade-LadyBug</t>
+  </si>
+  <si>
+    <t>13,497 / 41,910</t>
+  </si>
+  <si>
+    <t>795,794 / 5,662,720</t>
+  </si>
+  <si>
+    <t>116 / 553</t>
   </si>
 </sst>
 </file>
@@ -846,15 +1140,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B40B3-AA3D-43AE-95BF-373C1FCAAD18}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1813,138 +2107,138 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4">
-        <v>20211217</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="E28" s="4">
-        <v>20526</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="5">
-        <v>0.6</v>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="1">
+        <v>20211224</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="E28" s="1">
+        <v>21770</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.31</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="B29" s="1">
-        <v>20211217</v>
+        <v>20211224</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="D29" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="E29" s="1">
+        <v>11930</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="3">
         <v>0.33</v>
-      </c>
-      <c r="E29" s="1">
-        <v>17567</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0.31</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="B30" s="1">
-        <v>20211217</v>
+        <v>20211224</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="D30" s="3">
-        <v>0.51</v>
+        <v>0.23</v>
       </c>
       <c r="E30" s="1">
-        <v>28963</v>
+        <v>11690</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="G30" s="3">
-        <v>0.47</v>
+        <v>0.16</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="I30" s="3">
-        <v>0.65</v>
+        <v>0.24</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K30" s="3">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="B31" s="1">
-        <v>20211217</v>
+        <v>20211224</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="D31" s="3">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E31" s="1">
-        <v>13220</v>
+        <v>12341</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="G31" s="3">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="I31" s="3">
-        <v>0.22</v>
+        <v>0.37</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>11</v>
@@ -1955,77 +2249,917 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="B32" s="1">
-        <v>20211217</v>
+        <v>20211224</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="D32" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="E32" s="1">
+        <v>12807</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="3">
         <v>0.31</v>
-      </c>
-      <c r="E32" s="1">
-        <v>16117</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0.21</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0.35</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="1">
+        <v>20211224</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>15082</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="1">
+        <v>20211224</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="E34" s="1">
+        <v>11088</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="1">
+        <v>20211224</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="E35" s="1">
+        <v>17590</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="1">
+        <v>20211224</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E36" s="1">
+        <v>13352</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="1">
+        <v>20211224</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="E37" s="1">
+        <v>17837</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="1">
+        <v>20211224</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="E38" s="1">
+        <v>11593</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="1">
+        <v>20211224</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="E39" s="1">
+        <v>12657</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="1">
+        <v>20211224</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E40" s="1">
+        <v>17955</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="1">
+        <v>20211224</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="E41" s="1">
+        <v>12477</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="1">
+        <v>20211224</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="E42" s="1">
+        <v>12648</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="4">
+        <v>20211217</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="E43" s="4">
+        <v>20526</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="4">
+        <v>20211224</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="E44" s="4">
+        <v>17902</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" s="4">
+        <v>20211224</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="E45" s="4">
+        <v>12735</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" s="4">
+        <v>20211224</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="E46" s="4">
+        <v>41572</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="4">
+        <v>20211224</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="E47" s="4">
+        <v>21370</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" s="4">
+        <v>20211224</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="E48" s="4">
+        <v>27157</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" s="4">
+        <v>20211224</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="E49" s="4">
+        <v>18822</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" s="4">
+        <v>20211224</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="E50" s="4">
+        <v>20379</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" s="4">
+        <v>20211224</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="E51" s="4">
+        <v>17874</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" s="4">
+        <v>20211224</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="E52" s="4">
+        <v>17493</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="E53" s="1">
+        <v>17567</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E54" s="1">
+        <v>13220</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="E55" s="1">
+        <v>28963</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="1">
+        <v>20211217</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="E56" s="1">
+        <v>16117</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B57" s="1">
         <v>20211217</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D57" s="3">
         <v>0.71</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E57" s="1">
         <v>30780</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G57" s="3">
         <v>0.23</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I57" s="3">
         <v>0.45</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K57" s="3">
         <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:K32">
-    <sortCondition ref="A29:A32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:K56">
+    <sortCondition ref="A53:A56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
